--- a/data/trans_camb/P25A_11_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_11_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,28</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,4</t>
+          <t>-1,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>64,19</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>2,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>55,84</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,21</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>58,46</t>
+          <t>2,21</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 1,25</t>
+          <t>-3,95; 1,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 0,93</t>
+          <t>-4,28; 1,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>50,09; 76,62</t>
+          <t>-3,85; 1,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 2,99</t>
+          <t>-0,06; 4,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,88</t>
+          <t>-0,95; 3,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>47,11; 65,22</t>
+          <t>-2,07; 2,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 1,39</t>
+          <t>-0,97; 4,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,09</t>
+          <t>0,33; 5,85</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>50,6; 66,26</t>
+          <t>-1,04; 5,11</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 3,93</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 1,81</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 2,07</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 3,27</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,45; 4,31</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 3,15</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-28,85%</t>
+          <t>-20,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-31,76%</t>
+          <t>-24,21%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1451,27%</t>
+          <t>-17,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>69,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>31,64%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1058,99%</t>
+          <t>9,62%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-6,05%</t>
+          <t>30,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>55,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1201,2%</t>
+          <t>25,9%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9,0%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-3,32%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>7,02%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>24,54%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>37,27%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16,21%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-69,19; 42,78</t>
+          <t>-65,73; 63,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-68,2; 38,16</t>
+          <t>-66,09; 40,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>770,49; 2503,57</t>
+          <t>-60,05; 65,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-28,56; 72,16</t>
+          <t>-6,3; 193,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-11,96; 89,32</t>
+          <t>-17,51; 105,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>740,85; 1516,98</t>
+          <t>-29,13; 66,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-35,83; 37,45</t>
+          <t>-14,7; 94,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-23,41; 54,83</t>
+          <t>1,2; 132,5</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>853,66; 1676,36</t>
+          <t>-10,21; 70,39</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-16,75; 47,86</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-36,02; 45,39</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-27,38; 52,3</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-14,91; 76,46</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 81,97</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-10,27; 49,87</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,78</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>72,69</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>2,95</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>3,19</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,03</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,36</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>6,46</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,78</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
           <t>1,38</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>2,12</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>59,34</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>1,57</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>63,22</t>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>2,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 6,59</t>
+          <t>-0,49; 5,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 2,0</t>
+          <t>-1,4; 2,26</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>35,66; 90,66</t>
+          <t>-0,71; 3,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,01</t>
+          <t>0,14; 6,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 5,21</t>
+          <t>0,11; 7,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>40,56; 76,46</t>
+          <t>-3,22; 3,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 4,31</t>
+          <t>-1,77; 6,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 3,1</t>
+          <t>2,15; 10,14</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,21; 77,96</t>
+          <t>-5,16; 5,83</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 8,09</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 3,21</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 3,51</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,74; 5,87</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 4,64</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 6,21</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>65,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,17%</t>
+          <t>15,72%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3805,16%</t>
+          <t>55,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>45,19%</t>
+          <t>110,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1263,41%</t>
+          <t>20,63%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,55%</t>
+          <t>47,1%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>128,8%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1911,25%</t>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29,03%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>33,24%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>37,9%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>107,44%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>18,86%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>50,7%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 571,18</t>
+          <t>-27,0; 526,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-48,16; 202,62</t>
+          <t>-49,96; 198,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1650,32; 7669,37</t>
+          <t>-29,02; 262,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 127,55</t>
+          <t>-2,44; 326,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-24,93; 163,63</t>
+          <t>-12,24; 468,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>675,96; 2227,14</t>
+          <t>-42,31; 104,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,44; 175,92</t>
+          <t>-31,14; 178,36</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,54; 129,32</t>
+          <t>22,18; 296,23</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1167,01; 2906,75</t>
+          <t>-39,33; 59,41</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-30,87; 133,36</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-21,33; 117,33</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-21,68; 129,46</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>13,5; 221,92</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-19,41; 72,33</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-11,56; 144,26</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,45</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,77</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,86</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,05</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-2,45</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 6,34</t>
+          <t>-3,58; 7,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 4,41</t>
+          <t>-5,53; 4,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-5,25; 5,78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-10,93; 5,41</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 1,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-4,36; 6,88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,34; 2,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-7,64; 3,61</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-5,88; 4,18</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-8,61; 1,17</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 5,73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,34; 2,19</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,33; 3,16</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>27,99%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-4,75%</t>
+          <t>-9,07%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>6,18%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-15,41%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-50,53%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>27,41%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-27,74%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-29,16%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-0,67%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-36,02%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>27,66%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-19,81%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-14,15%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,64; 315,17</t>
+          <t>-59,15; 339,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-77,08; 251,82</t>
+          <t>-79,42; 194,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-77,22; 361,46</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-72,63; 121,13</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,26; 43,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-45,51; 203,3</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-74,3; 82,5</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-79,48; 107,56</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-55,2; 92,56</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-74,64; 34,35</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-32,87; 159,78</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-66,44; 66,57</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-60,74; 84,75</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>66,11</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>56,15</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>3,81</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>59,41</t>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,99</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,59</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,59</t>
+          <t>-1,64; 2,19</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 0,91</t>
+          <t>-2,33; 1,12</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>51,52; 76,53</t>
+          <t>-1,54; 1,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 2,41</t>
+          <t>0,71; 4,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,98</t>
+          <t>-0,05; 4,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>46,7; 63,54</t>
+          <t>-1,03; 2,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 1,9</t>
+          <t>-0,48; 3,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 1,47</t>
+          <t>1,64; 6,15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>52,75; 65,31</t>
+          <t>-0,73; 4,32</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 3,86</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,73; 1,99</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,7; 1,75</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,62; 3,23</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 3,76</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 3,19</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-16,53%</t>
+          <t>-12,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1943,82%</t>
+          <t>2,75%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>72,56%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>44,02%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1016,01%</t>
+          <t>15,91%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>28,32%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>70,41%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1324,56%</t>
+          <t>18,58%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>13,03%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>12,36%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>12,63%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>44,46%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>32,7%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>22,68%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,89; 100,64</t>
+          <t>-38,4; 75,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 37,68</t>
+          <t>-50,3; 41,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1165,22; 2767,55</t>
+          <t>-35,37; 66,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-22,76; 53,09</t>
+          <t>15,79; 167,52</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,67; 65,81</t>
+          <t>-1,92; 122,46</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>737,29; 1387,15</t>
+          <t>-16,13; 61,35</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 48,74</t>
+          <t>-8,08; 79,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,99; 38,08</t>
+          <t>22,56; 133,47</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1010,52; 1710,22</t>
+          <t>-7,28; 54,17</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-13,14; 45,91</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-14,33; 51,85</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-13,39; 46,96</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>11,37; 83,66</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>7,15; 67,08</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 49,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
